--- a/DEGpathwayAnalysis/processed_data/kegging.xlsx
+++ b/DEGpathwayAnalysis/processed_data/kegging.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">42/640</t>
   </si>
   <si>
-    <t xml:space="preserve">131/5829</t>
+    <t xml:space="preserve">131/5830</t>
   </si>
   <si>
     <t xml:space="preserve">2904/2906/2568/10874/3352/8862/1131/5021/2564/56413/2918/1910/2696/5737/53829/2150/10800/1134/7433/66004/2899/3360/1902/116/4886/2690/7068/2892/3363/140/9934/2903/5023/9340/1908/5745/7432/6752/1511/5697/2641/6750</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">22/640</t>
   </si>
   <si>
-    <t xml:space="preserve">57/5829</t>
+    <t xml:space="preserve">57/5830</t>
   </si>
   <si>
     <t xml:space="preserve">28234/10599/366/1244/6523/358/1576/111/5243/54658/54575/54576/6550/477/8647/7367/8671/123264/760/9429/79799/343</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">43/640</t>
   </si>
   <si>
-    <t xml:space="preserve">169/5829</t>
+    <t xml:space="preserve">169/5830</t>
   </si>
   <si>
     <t xml:space="preserve">3624/6374/3552/2920/2921/51561/3625/8771/8744/6369/6372/55504/6373/2919/90865/9518/655/9966/10913/8600/652/8808/4982/3976/654/9173/650/4804/6358/2690/939/6366/653/608/3570/729230/3977/6363/6387/7850/6355/6357/651</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">18/640</t>
   </si>
   <si>
-    <t xml:space="preserve">43/5829</t>
+    <t xml:space="preserve">43/5830</t>
   </si>
   <si>
     <t xml:space="preserve">341208/6523/540/79901/1181/4489/4501/4502/6550/477/140803/4493/4494/4495/1811/4496/340024/4499</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">20/640</t>
   </si>
   <si>
-    <t xml:space="preserve">56/5829</t>
+    <t xml:space="preserve">56/5830</t>
   </si>
   <si>
     <t xml:space="preserve">25984/3868/3872/3426/1828/1671/629/2215/2214/717/3880/713/714/1672/2213/5648/712/3075/1675/54474</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">16/640</t>
   </si>
   <si>
-    <t xml:space="preserve">44/5829</t>
+    <t xml:space="preserve">44/5830</t>
   </si>
   <si>
     <t xml:space="preserve">1555/2328/1559/1557/1576/54658/4128/2949/54575/316/54576/27306/7367/126/125/79799</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">21/640</t>
   </si>
   <si>
-    <t xml:space="preserve">69/5829</t>
+    <t xml:space="preserve">69/5830</t>
   </si>
   <si>
     <t xml:space="preserve">1300/1301/1299/1277/1303/1294/1295/1278/1298/85301/4311/3783/1310/7512/1288/8645/1359/4225/6550/477/340024</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">13/640</t>
   </si>
   <si>
-    <t xml:space="preserve">33/5829</t>
+    <t xml:space="preserve">33/5830</t>
   </si>
   <si>
     <t xml:space="preserve">954/54429/3352/1131/775/50832/5332/23236/773/8645/6335/6338/6340</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">14/640</t>
   </si>
   <si>
-    <t xml:space="preserve">39/5829</t>
+    <t xml:space="preserve">39/5830</t>
   </si>
   <si>
     <t xml:space="preserve">1555/1559/5959/54884/1576/54658/54575/316/54576/10170/7367/126/125/79799</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">31/640</t>
   </si>
   <si>
-    <t xml:space="preserve">136/5829</t>
+    <t xml:space="preserve">136/5830</t>
   </si>
   <si>
     <t xml:space="preserve">147111/4316/7472/27121/85407/11211/27123/8549/8313/59352/54894/6424/147495/85409/6932/51176/25805/8061/84133/5332/7976/80319/23236/4609/4919/23500/80326/2487/340419/1501/6422</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">8/640</t>
   </si>
   <si>
-    <t xml:space="preserve">15/5829</t>
+    <t xml:space="preserve">15/5830</t>
   </si>
   <si>
     <t xml:space="preserve">2904/2906/2568/2564/773/2892/2903/246213</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">Proximal tubule bicarbonate reclamation</t>
   </si>
   <si>
-    <t xml:space="preserve">16/5829</t>
+    <t xml:space="preserve">16/5830</t>
   </si>
   <si>
     <t xml:space="preserve">27165/358/6550/477/8671/5105/762/760</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">7/640</t>
   </si>
   <si>
-    <t xml:space="preserve">13/5829</t>
+    <t xml:space="preserve">13/5830</t>
   </si>
   <si>
     <t xml:space="preserve">768/1373/771/762/760/759/766</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">ECM-receptor interaction</t>
   </si>
   <si>
-    <t xml:space="preserve">72/5829</t>
+    <t xml:space="preserve">72/5830</t>
   </si>
   <si>
     <t xml:space="preserve">1311/6696/7058/158326/341640/1299/1277/3911/1278/1298/3673/22801/960/8516/1288/5649/948/1101/7148</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">32/640</t>
   </si>
   <si>
-    <t xml:space="preserve">159/5829</t>
+    <t xml:space="preserve">159/5830</t>
   </si>
   <si>
     <t xml:space="preserve">26281/2906/777/8817/4843/55283/1131/775/5021/5332/56413/23236/2246/4233/776/2263/4638/1910/5737/10800/51196/80310/2767/3706/113026/773/3360/3363/2903/5023/5333/845</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">9/640</t>
   </si>
   <si>
-    <t xml:space="preserve">24/5829</t>
+    <t xml:space="preserve">24/5830</t>
   </si>
   <si>
     <t xml:space="preserve">50487/1056/8399/38/80168/2169/948/2168/5408</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">Metabolism of xenobiotics by cytochrome P450</t>
   </si>
   <si>
-    <t xml:space="preserve">45/5829</t>
+    <t xml:space="preserve">45/5830</t>
   </si>
   <si>
     <t xml:space="preserve">1555/1559/874/1576/54658/2949/54575/54576/27306/7367/126/125/79799</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">Serotonergic synapse</t>
   </si>
   <si>
-    <t xml:space="preserve">74/5829</t>
+    <t xml:space="preserve">74/5830</t>
   </si>
   <si>
     <t xml:space="preserve">260293/2786/3352/1559/775/1557/5332/23236/776/54331/773/111/3360/247/4128/3363/2788/7166</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">Pentose and glucuronate interconversions</t>
   </si>
   <si>
-    <t xml:space="preserve">21/5829</t>
+    <t xml:space="preserve">21/5830</t>
   </si>
   <si>
     <t xml:space="preserve">7358/7360/54658/54575/54576/57016/7367/79799</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">Glutamatergic synapse</t>
   </si>
   <si>
-    <t xml:space="preserve">76/5829</t>
+    <t xml:space="preserve">76/5830</t>
   </si>
   <si>
     <t xml:space="preserve">2904/2906/2786/775/5332/2918/23236/27165/9456/776/54331/2899/773/111/2892/2903/2788/246213</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">12/640</t>
   </si>
   <si>
-    <t xml:space="preserve">42/5829</t>
+    <t xml:space="preserve">42/5830</t>
   </si>
   <si>
     <t xml:space="preserve">1559/1557/6817/1576/54658/2949/54575/54576/27306/7367/6799/79799</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">10/640</t>
   </si>
   <si>
-    <t xml:space="preserve">32/5829</t>
+    <t xml:space="preserve">32/5830</t>
   </si>
   <si>
     <t xml:space="preserve">6820/1576/54658/54575/3291/54576/3294/79154/7367/79799</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">15/640</t>
   </si>
   <si>
-    <t xml:space="preserve">63/5829</t>
+    <t xml:space="preserve">63/5830</t>
   </si>
   <si>
     <t xml:space="preserve">50487/1056/1131/6558/5332/23236/8399/111/1359/477/5408/8671/1811/22802/760</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">Viral protein interaction with cytokine and cytokine receptor</t>
   </si>
   <si>
-    <t xml:space="preserve">65/5829</t>
+    <t xml:space="preserve">65/5830</t>
   </si>
   <si>
     <t xml:space="preserve">6374/2920/2921/6369/6372/6373/2919/6358/6366/3570/729230/6363/6387/6355/6357</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">28/640</t>
   </si>
   <si>
-    <t xml:space="preserve">153/5829</t>
+    <t xml:space="preserve">153/5830</t>
   </si>
   <si>
     <t xml:space="preserve">2904/2906/10846/3352/6662/775/5021/55811/9586/776/2696/51196/7074/3776/111/5139/3360/116/4886/2892/2903/477/1908/7432/6752/84699/2641/6750</t>
@@ -797,13 +797,13 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0000000000401069721777926</v>
+        <v>0.0000000000398873798603345</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000000127941241247158</v>
+        <v>0.0000000127240741754467</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000000011103298613431</v>
+        <v>0.0000000110425062139663</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -826,13 +826,13 @@
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0000000462004863527694</v>
+        <v>0.0000000460574736323185</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00000682144485158835</v>
+        <v>0.00000678785966549421</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00000591994719012617</v>
+        <v>0.00000589080050164982</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -855,13 +855,13 @@
         <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0000000641515189804547</v>
+        <v>0.0000000638356708353688</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00000682144485158835</v>
+        <v>0.00000678785966549421</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00000591994719012617</v>
+        <v>0.00000589080050164982</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -884,13 +884,13 @@
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000000183262770634421</v>
+        <v>0.000000182785172560398</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000014615205958095</v>
+        <v>0.0000145771175116917</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0000126837128096981</v>
+        <v>0.0000126506579956275</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -913,13 +913,13 @@
         <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000000829522289547602</v>
+        <v>0.000000827252893807983</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000052923522073137</v>
+        <v>0.0000527787346249493</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0000459293394002146</v>
+        <v>0.0000458036865413683</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -942,13 +942,13 @@
         <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00000512071987445303</v>
+        <v>0.00000510777504865789</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00027225160665842</v>
+        <v>0.000271563373420311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000236271811751079</v>
+        <v>0.000235674532946846</v>
       </c>
       <c r="H7" t="s">
         <v>37</v>
@@ -971,13 +971,13 @@
         <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00000805292251917421</v>
+        <v>0.00000803512971917718</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000335216979633681</v>
+        <v>0.000334319872820096</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000290915907090111</v>
+        <v>0.000290137358692247</v>
       </c>
       <c r="H8" t="s">
         <v>42</v>
@@ -1000,13 +1000,13 @@
         <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000840669541401081</v>
+        <v>0.00000838419743749458</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000335216979633681</v>
+        <v>0.000334319872820096</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000290915907090111</v>
+        <v>0.000290137358692247</v>
       </c>
       <c r="H9" t="s">
         <v>47</v>
@@ -1029,13 +1029,13 @@
         <v>51</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000021207996426861</v>
+        <v>0.0000211687158809848</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000751705651129849</v>
+        <v>0.000750313374003796</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00065236293102508</v>
+        <v>0.000651154652245499</v>
       </c>
       <c r="H10" t="s">
         <v>52</v>
@@ -1058,13 +1058,13 @@
         <v>56</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0000352669344255878</v>
+        <v>0.0000351989473590801</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00112501520817625</v>
+        <v>0.00112284642075465</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000976337237255746</v>
+        <v>0.00097445506899348</v>
       </c>
       <c r="H11" t="s">
         <v>57</v>
@@ -1087,13 +1087,13 @@
         <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0000487083845994751</v>
+        <v>0.0000485487230544071</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00141254315338478</v>
+        <v>0.00140791296857781</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00122586652149875</v>
+        <v>0.00122184824529273</v>
       </c>
       <c r="H12" t="s">
         <v>62</v>
@@ -1116,13 +1116,13 @@
         <v>66</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0000644029824936083</v>
+        <v>0.0000643227997571434</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00171204595128842</v>
+        <v>0.0017099144268774</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0014857881048964</v>
+        <v>0.00148393827509901</v>
       </c>
       <c r="H13" t="s">
         <v>67</v>
@@ -1145,13 +1145,13 @@
         <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000116484283282704</v>
+        <v>0.000116341350038686</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0028583451051679</v>
+        <v>0.00285483774325698</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00248059647800415</v>
+        <v>0.00247755263645137</v>
       </c>
       <c r="H14" t="s">
         <v>71</v>
@@ -1174,13 +1174,13 @@
         <v>75</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000176382966352485</v>
+        <v>0.000176190104267697</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00401901187617448</v>
+        <v>0.00401461737581396</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00348787369554162</v>
+        <v>0.00348405995657176</v>
       </c>
       <c r="H15" t="s">
         <v>76</v>
@@ -1203,13 +1203,13 @@
         <v>79</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000192908151826921</v>
+        <v>0.000192475170705188</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00410251336218585</v>
+        <v>0.00409330529699701</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00356033992494597</v>
+        <v>0.003552348764594</v>
       </c>
       <c r="H16" t="s">
         <v>80</v>
@@ -1232,13 +1232,13 @@
         <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000284713701795577</v>
+        <v>0.000284153959900169</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00567647942954932</v>
+        <v>0.00566531957550962</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00492629628764716</v>
+        <v>0.0049166112798516</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
@@ -1261,13 +1261,13 @@
         <v>87</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00043639555397868</v>
+        <v>0.000435075172848883</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00818883421877641</v>
+        <v>0.00816405765522316</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00710662728770234</v>
+        <v>0.0070851251058363</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
@@ -1290,13 +1290,13 @@
         <v>92</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000625236884145342</v>
+        <v>0.000624442754061905</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0110805870023536</v>
+        <v>0.0110665132525415</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00961621640527632</v>
+        <v>0.00960400259171233</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
@@ -1319,13 +1319,13 @@
         <v>96</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000775529895431152</v>
+        <v>0.000774265177416305</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0130207387706599</v>
+        <v>0.0129995048208316</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0112999646813514</v>
+        <v>0.0112815369340991</v>
       </c>
       <c r="H20" t="s">
         <v>97</v>
@@ -1348,13 +1348,13 @@
         <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000822585847149578</v>
+        <v>0.000820922949582996</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0131202442620358</v>
+        <v>0.0130937210458488</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0113863198842284</v>
+        <v>0.0113633018810699</v>
       </c>
       <c r="H21" t="s">
         <v>101</v>
@@ -1377,13 +1377,13 @@
         <v>104</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00111649395232639</v>
+        <v>0.00111522316481925</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0166640416223195</v>
+        <v>0.0166309705533588</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0144617817082</v>
+        <v>0.0144330811929825</v>
       </c>
       <c r="H22" t="s">
         <v>105</v>
@@ -1406,13 +1406,13 @@
         <v>108</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00114924424981514</v>
+        <v>0.00114696348643854</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0166640416223195</v>
+        <v>0.0166309705533588</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0144617817082</v>
+        <v>0.0144330811929825</v>
       </c>
       <c r="H23" t="s">
         <v>109</v>
@@ -1435,13 +1435,13 @@
         <v>113</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00136575902576425</v>
+        <v>0.00136370936615635</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0189424838790781</v>
+        <v>0.0189140559914729</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0164391132162928</v>
+        <v>0.0164144422562526</v>
       </c>
       <c r="H24" t="s">
         <v>114</v>
@@ -1464,13 +1464,13 @@
         <v>118</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00161294005089759</v>
+        <v>0.0016108237518858</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0214386615098472</v>
+        <v>0.0214105323688154</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0186054049730731</v>
+        <v>0.0185809932783318</v>
       </c>
       <c r="H25" t="s">
         <v>119</v>
@@ -1493,13 +1493,13 @@
         <v>32</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00230941211340068</v>
+        <v>0.00230568245799451</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0294680985669927</v>
+        <v>0.02942050816401</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0255737004557633</v>
+        <v>0.0255323994295813</v>
       </c>
       <c r="H26" t="s">
         <v>122</v>
@@ -1522,13 +1522,13 @@
         <v>126</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00274172999004007</v>
+        <v>0.0027371477166774</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0336389179547224</v>
+        <v>0.033582696985388</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0291933193271473</v>
+        <v>0.0291445283192775</v>
       </c>
       <c r="H27" t="s">
         <v>127</v>
@@ -1551,13 +1551,13 @@
         <v>130</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00378258460607553</v>
+        <v>0.0037763995304582</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0446905366421516</v>
+        <v>0.0446174611191172</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0387843957659986</v>
+        <v>0.0387209776417351</v>
       </c>
       <c r="H28" t="s">
         <v>131</v>
@@ -1580,13 +1580,13 @@
         <v>135</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00424430368529576</v>
+        <v>0.00423413074432404</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0483547455574767</v>
+        <v>0.0482388466942631</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0419643559861949</v>
+        <v>0.0418637739006474</v>
       </c>
       <c r="H29" t="s">
         <v>136</v>
